--- a/layout_car.xlsx
+++ b/layout_car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D28A6-0116-4243-A422-2974B2240B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896DAC3-70D9-4445-8F4F-8C5C81547570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BADBEF-02C2-40DE-8E06-D9D044A0E7FB}">
-  <dimension ref="E2:U39"/>
+  <dimension ref="E2:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +658,9 @@
       </c>
     </row>
     <row r="3" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
@@ -709,7 +712,7 @@
     </row>
     <row r="4" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -730,7 +733,7 @@
     </row>
     <row r="5" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -751,7 +754,7 @@
     </row>
     <row r="6" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -772,7 +775,7 @@
     </row>
     <row r="7" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -793,7 +796,7 @@
     </row>
     <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -811,16 +814,16 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7">
         <f>$E8</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U8" s="7">
         <f>$E8</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -838,16 +841,16 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8">
         <f t="shared" ref="T9:U9" si="0">T8+1</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -861,26 +864,26 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7">
         <f>$E10</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7">
         <f>$E10</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" s="7">
         <f>$E10</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S10" s="7">
         <f>$E10</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -894,26 +897,26 @@
       <c r="O11" s="7"/>
       <c r="P11" s="8">
         <f t="shared" ref="P11:S11" si="1">P10+1</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -922,19 +925,19 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7">
         <f>$E12</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7">
         <f>$E12</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <f>$E12</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N12" s="7">
         <f>$E12</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="3"/>
@@ -944,12 +947,12 @@
       <c r="T12" s="3"/>
       <c r="U12" s="9">
         <f>$E12</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -958,19 +961,19 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8">
         <f>K12+1</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ref="L13:N13" si="2">L12+1</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="3"/>
@@ -980,23 +983,23 @@
       <c r="T13" s="3"/>
       <c r="U13" s="10">
         <f>U12+1</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
         <f>$E14</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" s="7">
         <f>$E14</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1004,35 +1007,35 @@
       <c r="N14" s="3"/>
       <c r="O14" s="2">
         <f>$E14</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="9">
         <f>$E14</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T14" s="9">
         <f>$E14</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
         <f t="shared" ref="I15:J15" si="3">I14+1</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1040,30 +1043,30 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3">
         <f>O14+1</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="10">
         <f t="shared" ref="S15:T15" si="4">S14+1</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="2">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1071,41 +1074,41 @@
       <c r="L16" s="3"/>
       <c r="M16" s="9">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N16" s="9">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O16" s="9">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="9">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R16" s="9">
         <f>$E16</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="4">
         <f>$E16</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="3">
         <f>H16+1</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1113,203 +1116,227 @@
       <c r="L17" s="3"/>
       <c r="M17" s="10">
         <f t="shared" ref="M17:O17" si="5">M16+1</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="10">
         <f t="shared" ref="Q17:R17" si="6">Q16+1</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="5">
         <f>U16+1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H18" s="9">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="9">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="9">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="4">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O18" s="4">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P18" s="3">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="4">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S18" s="4">
         <f>$E18</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="3">
         <f>G18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H19" s="10">
         <f>H18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="10">
         <f>J18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="10">
         <f>L18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="5">
         <f t="shared" ref="N19:O19" si="7">N18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P19" s="10">
         <f>P18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="5">
         <f t="shared" ref="R19:S19" si="8">R18+1</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:U20" si="9">$E21</f>
+        <f>$E21</f>
         <v>54</v>
       </c>
       <c r="G20" s="9">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="H20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="I20" s="9">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="J20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="K20" s="3">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="L20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="M20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="N20" s="6">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="O20" s="6">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="P20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="R20" s="6">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="S20" s="6">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="T20" s="4">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+      <c r="U20" s="6">
+        <f>$E21</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <f>G20-G19</f>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:L21" si="9">H20-H19</f>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <f>I20-I15</f>
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="H20" s="4">
+      <c r="L21">
         <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="S20" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:24" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>9</v>
       </c>
@@ -1408,7 +1435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>8</v>
       </c>
@@ -1441,7 +1468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>7</v>
       </c>
@@ -1473,8 +1500,12 @@
       <c r="R27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f>54/9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>6</v>
       </c>
@@ -1507,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>6</v>
       </c>
@@ -1540,7 +1571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>5</v>
       </c>
@@ -1573,7 +1604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>5</v>
       </c>
@@ -1606,7 +1637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>5</v>
       </c>
